--- a/src/test/resources/TestData.xlsx
+++ b/src/test/resources/TestData.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25028"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25128"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\workspace\selcukes-excel-runner\src\test\resources\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\selcukes-java-skeleton\src\test\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C6E949A5-653D-415D-93E9-95AB98C603A6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA7488FB-096F-4D8D-8400-815BAC44FE0A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3552" yWindow="3396" windowWidth="17280" windowHeight="8964" xr2:uid="{8ED8C800-1088-4943-A8AD-3DF4EB6B3031}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{8ED8C800-1088-4943-A8AD-3DF4EB6B3031}"/>
   </bookViews>
   <sheets>
     <sheet name="Master" sheetId="1" r:id="rId1"/>
@@ -543,7 +543,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{840F594A-4955-4E66-BD69-F84C673EB0D5}">
   <dimension ref="A1:D3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
@@ -605,7 +605,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6068E7A2-F303-4CB3-9D5D-18DC8BE390E6}">
   <dimension ref="A1:D6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="F19" sqref="F19"/>
     </sheetView>
   </sheetViews>
